--- a/src/main/java/com/testdata/ExpressRegistrationTestdata.xlsx
+++ b/src/main/java/com/testdata/ExpressRegistrationTestdata.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t xml:space="preserve">email</t>
   </si>
@@ -34,9 +34,6 @@
     <t xml:space="preserve">password</t>
   </si>
   <si>
-    <t xml:space="preserve">country</t>
-  </si>
-  <si>
     <t xml:space="preserve">shakespeare@gmail.com</t>
   </si>
   <si>
@@ -49,9 +46,6 @@
     <t xml:space="preserve">Younglove</t>
   </si>
   <si>
-    <t xml:space="preserve">United Kingdom</t>
-  </si>
-  <si>
     <t xml:space="preserve">creapypainting@gmail.com</t>
   </si>
   <si>
@@ -64,9 +58,6 @@
     <t xml:space="preserve">Foreveryoung</t>
   </si>
   <si>
-    <t xml:space="preserve">Ireland</t>
-  </si>
-  <si>
     <t xml:space="preserve">goodness@gmail.com</t>
   </si>
   <si>
@@ -77,9 +68,6 @@
   </si>
   <si>
     <t xml:space="preserve">WarWorld</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Russia</t>
   </si>
 </sst>
 </file>
@@ -191,13 +179,16 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1:E4"/>
+      <selection pane="topLeft" activeCell="E1" activeCellId="0" sqref="E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1021" style="0" width="11.52"/>
+  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -212,59 +203,47 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
     </row>
     <row r="2" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>7</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="D3" s="1" t="s">
         <v>11</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>15</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>19</v>
       </c>
     </row>
   </sheetData>
